--- a/docs/产品分类.xlsx
+++ b/docs/产品分类.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15600" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="分类" sheetId="4" r:id="rId1"/>
     <sheet name="备份" sheetId="1" r:id="rId2"/>
     <sheet name="品牌" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">分类!$A$3:$S$215</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="617">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3084,12 +3087,165 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石珠宝</t>
+  </si>
+  <si>
+    <t>电脑</t>
+  </si>
+  <si>
+    <t>&amp;#xe63c;</t>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+  </si>
+  <si>
+    <t>&amp;#xe617;</t>
+  </si>
+  <si>
+    <t>电脑端</t>
+  </si>
+  <si>
+    <t>&amp;#xe653;</t>
+  </si>
+  <si>
+    <t>登山鞋</t>
+  </si>
+  <si>
+    <t>&amp;#xe708;</t>
+  </si>
+  <si>
+    <t>时尚服饰</t>
+  </si>
+  <si>
+    <t>服装鞋靴-01</t>
+  </si>
+  <si>
+    <t>鞋靴箱包</t>
+  </si>
+  <si>
+    <t>回流区日用百货</t>
+  </si>
+  <si>
+    <t>照相机</t>
+  </si>
+  <si>
+    <t>医疗</t>
+  </si>
+  <si>
+    <t>&amp;#x343f;</t>
+  </si>
+  <si>
+    <t>药品</t>
+  </si>
+  <si>
+    <t>体育02</t>
+  </si>
+  <si>
+    <t>乒乓球</t>
+  </si>
+  <si>
+    <t>足球</t>
+  </si>
+  <si>
+    <t>母婴</t>
+  </si>
+  <si>
+    <t>玩耍的孩子</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>更多</t>
+  </si>
+  <si>
+    <t>'\u55B5'</t>
+  </si>
+  <si>
+    <t>&amp;\u006f;</t>
+  </si>
+  <si>
+    <t>&amp;\u0071;</t>
+  </si>
+  <si>
+    <t>&amp;\u0092;</t>
+  </si>
+  <si>
+    <t>&amp;\u0006;</t>
+  </si>
+  <si>
+    <t>&amp;\u0009;</t>
+  </si>
+  <si>
+    <t>&amp;\u01d7;</t>
+  </si>
+  <si>
+    <t>icon-gehuhuazhuang02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-tubiao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-diannao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-shuma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-fuzhuangxiexue01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-fuzhuangfushi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-icon16258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-huiliuquriyongbaihuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-xiyiji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-yiliao1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-tiyu02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-muying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-jiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon-gengduo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3155,6 +3311,12 @@
       <sz val="10"/>
       <color rgb="FF0066C0"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF555555"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3223,9 +3385,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3240,6 +3399,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3660,10 +3822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q214"/>
+  <dimension ref="A3:S242"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:C46"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="F217" sqref="F217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3671,10 +3833,12 @@
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="25.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="22.75" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3687,27 +3851,43 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="H3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>0</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F4" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="I4" t="str">
+        <f>"{" &amp; "id:" &amp;B4 &amp; ",name:'" &amp; C4 &amp; "',level:"&amp;D4&amp;",parentID:"&amp;E4 &amp; IF(F4&lt;&gt;"",",iconFont:'"&amp;F4&amp;"'","") &amp; "},"</f>
+        <v>{id:1,name:'个护化妆',level:1,parentID:0,iconFont:'icon-gehuhuazhuang02'},</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -3720,13 +3900,17 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I68" si="0">"{" &amp; "id:" &amp;B5 &amp; ",name:'" &amp; C5 &amp; "',level:"&amp;D5&amp;",parentID:"&amp;E5 &amp; IF(F5&lt;&gt;"",",iconFont:'"&amp;F5&amp;"'","") &amp; "},"</f>
+        <v>{id:2,name:'面部护理',level:2,parentID:1},</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
       <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -3739,13 +3923,17 @@
       <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:3,name:'洁面',level:3,parentID:2},</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
       <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -3758,13 +3946,17 @@
       <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:4,name:'化妆水',level:3,parentID:2},</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
       <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -3777,13 +3969,17 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:5,name:'精华',level:3,parentID:2},</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
       <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -3796,13 +3992,17 @@
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:6,name:'面霜乳液',level:3,parentID:2},</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
       <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -3815,13 +4015,17 @@
       <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:7,name:'眼霜',level:3,parentID:2},</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -3834,11 +4038,15 @@
       <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:8,name:'面膜',level:3,parentID:2},</v>
+      </c>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -3851,12 +4059,16 @@
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:9,name:'洗发护发',level:2,parentID:1},</v>
+      </c>
+      <c r="L12" s="3"/>
       <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -3869,12 +4081,16 @@
       <c r="E13" s="2">
         <v>9</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:10,name:'洗发',level:3,parentID:9},</v>
+      </c>
+      <c r="L13" s="3"/>
       <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -3887,12 +4103,16 @@
       <c r="E14" s="2">
         <v>9</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:11,name:'护发',level:3,parentID:9},</v>
+      </c>
+      <c r="L14" s="3"/>
       <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -3905,14 +4125,18 @@
       <c r="E15" s="2">
         <v>9</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:12,name:'染发',level:3,parentID:9},</v>
+      </c>
       <c r="L15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
       <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -3925,14 +4149,18 @@
       <c r="E16" s="2">
         <v>9</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:13,name:'假发',level:3,parentID:9},</v>
+      </c>
       <c r="L16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -3945,12 +4173,16 @@
       <c r="E17" s="2">
         <v>9</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:14,name:'造型',level:3,parentID:9},</v>
+      </c>
+      <c r="L17" s="3"/>
       <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -3963,14 +4195,18 @@
       <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:15,name:'身体护肤',level:2,parentID:1},</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
       <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -3983,14 +4219,18 @@
       <c r="E19" s="2">
         <v>15</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:16,name:'沐浴',level:3,parentID:15},</v>
+      </c>
       <c r="L19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -4003,14 +4243,18 @@
       <c r="E20" s="2">
         <v>15</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:17,name:'润肤',level:3,parentID:15},</v>
+      </c>
       <c r="L20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
       <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -4023,12 +4267,16 @@
       <c r="E21" s="2">
         <v>15</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:18,name:'纤体塑型',level:3,parentID:15},</v>
+      </c>
+      <c r="L21" s="3"/>
       <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -4041,12 +4289,16 @@
       <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:19,name:'口腔护理',level:2,parentID:1},</v>
+      </c>
+      <c r="L22" s="3"/>
       <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -4059,12 +4311,16 @@
       <c r="E23" s="2">
         <v>20</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:20,name:'牙膏/牙粉',level:3,parentID:20},</v>
+      </c>
+      <c r="L23" s="3"/>
       <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B24" s="1">
         <v>21</v>
       </c>
@@ -4077,12 +4333,16 @@
       <c r="E24" s="2">
         <v>20</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:21,name:'牙线/牙刷',level:3,parentID:20},</v>
+      </c>
+      <c r="L24" s="3"/>
       <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B25" s="1">
         <v>22</v>
       </c>
@@ -4095,12 +4355,16 @@
       <c r="E25" s="2">
         <v>20</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:22,name:'漱口水',level:3,parentID:20},</v>
+      </c>
+      <c r="L25" s="3"/>
       <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B26" s="1">
         <v>23</v>
       </c>
@@ -4113,8 +4377,12 @@
       <c r="E26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:23,name:'女性护理',level:2,parentID:1},</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B27" s="1">
         <v>24</v>
       </c>
@@ -4127,8 +4395,12 @@
       <c r="E27" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:24,name:'脱毛膏',level:3,parentID:24},</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B28" s="1">
         <v>25</v>
       </c>
@@ -4141,8 +4413,12 @@
       <c r="E28" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:25,name:'卫生巾',level:3,parentID:24},</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B29" s="1">
         <v>26</v>
       </c>
@@ -4155,12 +4431,16 @@
       <c r="E29" s="2">
         <v>1</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:26,name:'彩妆',level:2,parentID:1},</v>
+      </c>
+      <c r="L29" s="3"/>
       <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B30" s="1">
         <v>27</v>
       </c>
@@ -4173,12 +4453,16 @@
       <c r="E30" s="2">
         <v>26</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:27,name:'睫毛膏',level:3,parentID:26},</v>
+      </c>
+      <c r="L30" s="3"/>
       <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B31" s="1">
         <v>28</v>
       </c>
@@ -4191,11 +4475,15 @@
       <c r="E31" s="2">
         <v>26</v>
       </c>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:28,name:'粉饼',level:3,parentID:26},</v>
+      </c>
       <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B32" s="1">
         <v>29</v>
       </c>
@@ -4208,11 +4496,15 @@
       <c r="E32" s="2">
         <v>26</v>
       </c>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:29,name:'隔离霜',level:3,parentID:26},</v>
+      </c>
       <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B33" s="1">
         <v>30</v>
       </c>
@@ -4225,11 +4517,15 @@
       <c r="E33" s="2">
         <v>26</v>
       </c>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:30,name:'BB霜',level:3,parentID:26},</v>
+      </c>
       <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B34" s="1">
         <v>31</v>
       </c>
@@ -4242,11 +4538,15 @@
       <c r="E34" s="2">
         <v>26</v>
       </c>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:31,name:'眉笔',level:3,parentID:26},</v>
+      </c>
       <c r="Q34" s="3"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B35" s="1">
         <v>32</v>
       </c>
@@ -4259,11 +4559,15 @@
       <c r="E35" s="2">
         <v>26</v>
       </c>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:32,name:'眼影',level:3,parentID:26},</v>
+      </c>
       <c r="Q35" s="3"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B36" s="1">
         <v>33</v>
       </c>
@@ -4276,11 +4580,15 @@
       <c r="E36" s="2">
         <v>26</v>
       </c>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:33,name:'腮红',level:3,parentID:26},</v>
+      </c>
       <c r="Q36" s="3"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B37" s="1">
         <v>34</v>
       </c>
@@ -4293,11 +4601,15 @@
       <c r="E37" s="2">
         <v>26</v>
       </c>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:34,name:'唇膏/彩',level:3,parentID:26},</v>
+      </c>
       <c r="Q37" s="3"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B38" s="1">
         <v>35</v>
       </c>
@@ -4310,28 +4622,42 @@
       <c r="E38" s="2">
         <v>1</v>
       </c>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:35,name:'香水',level:2,parentID:1},</v>
+      </c>
       <c r="Q38" s="3"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B39" s="1">
         <v>36</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="10">
         <v>1</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <v>0</v>
       </c>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
+      <c r="F39" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:36,name:'珠宝饰品',level:1,parentID:0,iconFont:'icon-tubiao'},</v>
+      </c>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B40" s="1">
         <v>37</v>
       </c>
@@ -4344,8 +4670,12 @@
       <c r="E40" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:37,name:'金饰',level:2,parentID:36},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B41" s="1">
         <v>38</v>
       </c>
@@ -4358,11 +4688,15 @@
       <c r="E41" s="2">
         <v>36</v>
       </c>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:38,name:'银饰',level:2,parentID:36},</v>
+      </c>
       <c r="Q41" s="3"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B42" s="1">
         <v>39</v>
       </c>
@@ -4375,11 +4709,15 @@
       <c r="E42" s="2">
         <v>36</v>
       </c>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:39,name:'钻石',level:2,parentID:36},</v>
+      </c>
       <c r="Q42" s="3"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B43" s="1">
         <v>40</v>
       </c>
@@ -4392,8 +4730,12 @@
       <c r="E43" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:40,name:'铂金',level:2,parentID:36},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B44" s="1">
         <v>41</v>
       </c>
@@ -4406,8 +4748,12 @@
       <c r="E44" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:41,name:'翡翠玉石',level:2,parentID:36},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B45" s="1">
         <v>42</v>
       </c>
@@ -4420,8 +4766,12 @@
       <c r="E45" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:42,name:'水晶玛瑙',level:2,parentID:36},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B46" s="1">
         <v>43</v>
       </c>
@@ -4434,30 +4784,44 @@
       <c r="E46" s="2">
         <v>36</v>
       </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:43,name:'珍珠',level:2,parentID:36},</v>
+      </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B47" s="1">
         <v>44</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="10">
         <v>1</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="10">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
+      <c r="F47" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:44,name:'电脑办公',level:1,parentID:0,iconFont:'icon-diannao'},</v>
+      </c>
       <c r="Q47" s="3"/>
-    </row>
-    <row r="48" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+    </row>
+    <row r="48" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48"/>
       <c r="B48" s="1">
         <v>45</v>
@@ -4471,9 +4835,13 @@
       <c r="E48" s="2">
         <v>44</v>
       </c>
-      <c r="G48"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F48" s="11"/>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:45,name:'电脑',level:2,parentID:44},</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B49" s="1">
         <v>46</v>
       </c>
@@ -4486,8 +4854,12 @@
       <c r="E49" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:46,name:'平',level:3,parentID:45},</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B50" s="1">
         <v>47</v>
       </c>
@@ -4500,13 +4872,17 @@
       <c r="E50" s="2">
         <v>45</v>
       </c>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:47,name:'笔',level:3,parentID:45},</v>
+      </c>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B51" s="1">
         <v>48</v>
       </c>
@@ -4519,8 +4895,12 @@
       <c r="E51" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:48,name:'台',level:3,parentID:45},</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B52" s="1">
         <v>49</v>
       </c>
@@ -4533,11 +4913,15 @@
       <c r="E52" s="2">
         <v>44</v>
       </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:49,name:'电脑配件',level:2,parentID:44},</v>
+      </c>
       <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B53" s="1">
         <v>50</v>
       </c>
@@ -4550,16 +4934,20 @@
       <c r="E53" s="2">
         <v>44</v>
       </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:50,name:'网络产品',level:2,parentID:44},</v>
+      </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B54" s="1">
         <v>51</v>
       </c>
@@ -4572,8 +4960,12 @@
       <c r="E54" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:51,name:'办公打印',level:2,parentID:44},</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B55" s="1">
         <v>52</v>
       </c>
@@ -4586,22 +4978,36 @@
       <c r="E55" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:52,name:'办公文仪',level:2,parentID:44},</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B56" s="1">
         <v>53</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="10">
         <v>1</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F56" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:53,name:'数码',level:1,parentID:0,iconFont:'icon-shuma'},</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B57" s="1">
         <v>54</v>
       </c>
@@ -4614,8 +5020,12 @@
       <c r="E57" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:54,name:'手机',level:2,parentID:53},</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B58" s="1">
         <v>55</v>
       </c>
@@ -4628,16 +5038,20 @@
       <c r="E58" s="2">
         <v>53</v>
       </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:55,name:'摄影摄像',level:2,parentID:53},</v>
+      </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B59" s="1">
         <v>56</v>
       </c>
@@ -4650,16 +5064,20 @@
       <c r="E59" s="2">
         <v>55</v>
       </c>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
+      <c r="I59" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:56,name:'便携式相机',level:3,parentID:55},</v>
+      </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B60" s="1">
         <v>57</v>
       </c>
@@ -4672,16 +5090,20 @@
       <c r="E60" s="2">
         <v>55</v>
       </c>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
+      <c r="I60" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:57,name:'单反相机',level:3,parentID:55},</v>
+      </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B61" s="1">
         <v>58</v>
       </c>
@@ -4694,16 +5116,20 @@
       <c r="E61" s="2">
         <v>55</v>
       </c>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:58,name:'DV机',level:3,parentID:55},</v>
+      </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B62" s="1">
         <v>59</v>
       </c>
@@ -4716,16 +5142,20 @@
       <c r="E62" s="2">
         <v>55</v>
       </c>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
+      <c r="I62" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:59,name:'望远镜',level:3,parentID:55},</v>
+      </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B63" s="1">
         <v>60</v>
       </c>
@@ -4738,16 +5168,20 @@
       <c r="E63" s="2">
         <v>55</v>
       </c>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
+      <c r="I63" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:60,name:'镜头',level:3,parentID:55},</v>
+      </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B64" s="1">
         <v>61</v>
       </c>
@@ -4760,8 +5194,12 @@
       <c r="E64" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I64" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:61,name:'滤镜',level:3,parentID:55},</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B65" s="1">
         <v>62</v>
       </c>
@@ -4774,8 +5212,12 @@
       <c r="E65" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I65" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:62,name:'闪光灯',level:3,parentID:55},</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B66" s="1">
         <v>63</v>
       </c>
@@ -4788,16 +5230,20 @@
       <c r="E66" s="2">
         <v>53</v>
       </c>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
+      <c r="I66" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:63,name:'数码配件',level:2,parentID:53},</v>
+      </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B67" s="1">
         <v>64</v>
       </c>
@@ -4810,16 +5256,20 @@
       <c r="E67" s="2">
         <v>63</v>
       </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="I67" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:64,name:'蓝牙/耳机',level:3,parentID:63},</v>
+      </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B68" s="1">
         <v>65</v>
       </c>
@@ -4832,16 +5282,20 @@
       <c r="E68" s="2">
         <v>63</v>
       </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
+      <c r="I68" t="str">
+        <f t="shared" si="0"/>
+        <v>{id:65,name:'存储卡',level:3,parentID:63},</v>
+      </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B69" s="1">
         <v>66</v>
       </c>
@@ -4854,8 +5308,12 @@
       <c r="E69" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I69" t="str">
+        <f t="shared" ref="I69:I132" si="1">"{" &amp; "id:" &amp;B69 &amp; ",name:'" &amp; C69 &amp; "',level:"&amp;D69&amp;",parentID:"&amp;E69 &amp; IF(F69&lt;&gt;"",",iconFont:'"&amp;F69&amp;"'","") &amp; "},"</f>
+        <v>{id:66,name:'三脚架/云台',level:3,parentID:63},</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B70" s="1">
         <v>67</v>
       </c>
@@ -4868,8 +5326,12 @@
       <c r="E70" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I70" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:67,name:'电池/电源',level:3,parentID:63},</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B71" s="1">
         <v>68</v>
       </c>
@@ -4882,8 +5344,12 @@
       <c r="E71" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I71" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:68,name:'智能设备',level:2,parentID:68},</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B72" s="1">
         <v>69</v>
       </c>
@@ -4896,8 +5362,12 @@
       <c r="E72" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I72" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:69,name:'智能手环',level:3,parentID:68},</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B73" s="1">
         <v>70</v>
       </c>
@@ -4910,8 +5380,12 @@
       <c r="E73" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I73" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:70,name:'智能眼镜',level:3,parentID:68},</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B74" s="1">
         <v>71</v>
       </c>
@@ -4924,8 +5398,12 @@
       <c r="E74" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I74" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:71,name:'运动跟踪器',level:3,parentID:68},</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B75" s="1">
         <v>72</v>
       </c>
@@ -4938,8 +5416,12 @@
       <c r="E75" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I75" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:72,name:'健康监测',level:3,parentID:68},</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B76" s="1">
         <v>73</v>
       </c>
@@ -4952,8 +5434,12 @@
       <c r="E76" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I76" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:73,name:'智能配饰',level:3,parentID:68},</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B77" s="1">
         <v>74</v>
       </c>
@@ -4966,8 +5452,12 @@
       <c r="E77" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I77" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:74,name:'智能家居',level:3,parentID:68},</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B78" s="1">
         <v>75</v>
       </c>
@@ -4980,8 +5470,12 @@
       <c r="E78" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I78" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:75,name:'体感车',level:3,parentID:68},</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B79" s="1">
         <v>76</v>
       </c>
@@ -4994,16 +5488,20 @@
       <c r="E79" s="2">
         <v>53</v>
       </c>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
+      <c r="I79" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:76,name:'电子教育',level:2,parentID:53},</v>
+      </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B80" s="1">
         <v>77</v>
       </c>
@@ -5016,16 +5514,20 @@
       <c r="E80" s="2">
         <v>76</v>
       </c>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
+      <c r="I80" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:77,name:'电子词典',level:3,parentID:76},</v>
+      </c>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B81" s="1">
         <v>78</v>
       </c>
@@ -5038,16 +5540,20 @@
       <c r="E81" s="2">
         <v>76</v>
       </c>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
+      <c r="I81" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:78,name:'电纸书',level:3,parentID:76},</v>
+      </c>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B82" s="1">
         <v>79</v>
       </c>
@@ -5060,16 +5566,20 @@
       <c r="E82" s="2">
         <v>76</v>
       </c>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
+      <c r="I82" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:79,name:'复读机',level:3,parentID:76},</v>
+      </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B83" s="1">
         <v>80</v>
       </c>
@@ -5082,16 +5592,20 @@
       <c r="E83" s="2">
         <v>76</v>
       </c>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
+      <c r="I83" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:80,name:'点读机/笔',level:3,parentID:76},</v>
+      </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B84" s="1">
         <v>81</v>
       </c>
@@ -5104,16 +5618,20 @@
       <c r="E84" s="2">
         <v>76</v>
       </c>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
+      <c r="I84" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:81,name:'学生平板',level:3,parentID:76},</v>
+      </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B85" s="1">
         <v>82</v>
       </c>
@@ -5126,16 +5644,20 @@
       <c r="E85" s="2">
         <v>76</v>
       </c>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
+      <c r="I85" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:82,name:'早教机',level:3,parentID:76},</v>
+      </c>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B86" s="1">
         <v>83</v>
       </c>
@@ -5148,16 +5670,20 @@
       <c r="E86" s="2">
         <v>53</v>
       </c>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
+      <c r="I86" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:83,name:'乐器',level:2,parentID:53},</v>
+      </c>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B87" s="1">
         <v>84</v>
       </c>
@@ -5170,16 +5696,20 @@
       <c r="E87" s="2">
         <v>53</v>
       </c>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
+      <c r="I87" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:84,name:'表',level:2,parentID:53},</v>
+      </c>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B88" s="1">
         <v>85</v>
       </c>
@@ -5192,16 +5722,20 @@
       <c r="E88" s="2">
         <v>84</v>
       </c>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
+      <c r="I88" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:85,name:'石英表/电子表',level:3,parentID:84},</v>
+      </c>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B89" s="1">
         <v>86</v>
       </c>
@@ -5214,16 +5748,20 @@
       <c r="E89" s="2">
         <v>84</v>
       </c>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
+      <c r="I89" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:86,name:'机械表',level:3,parentID:84},</v>
+      </c>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B90" s="1">
         <v>87</v>
       </c>
@@ -5236,8 +5774,12 @@
       <c r="E90" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I90" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:87,name:'小家电',level:2,parentID:53},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91"/>
       <c r="B91" s="1">
         <v>88</v>
@@ -5251,8 +5793,13 @@
       <c r="E91" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F91" s="11"/>
+      <c r="I91" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:88,name:'电话机',level:3,parentID:87},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92"/>
       <c r="B92" s="1">
         <v>89</v>
@@ -5266,8 +5813,13 @@
       <c r="E92" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="F92" s="11"/>
+      <c r="I92" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:89,name:'游戏机',level:3,parentID:87},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B93" s="1">
         <v>90</v>
       </c>
@@ -5280,16 +5832,20 @@
       <c r="E93" s="2">
         <v>53</v>
       </c>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
+      <c r="I93" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:90,name:'便携式影音设备',level:2,parentID:53},</v>
+      </c>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B94" s="1">
         <v>91</v>
       </c>
@@ -5302,16 +5858,20 @@
       <c r="E94" s="2">
         <v>90</v>
       </c>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
+      <c r="I94" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:91,name:'电视摄像机',level:3,parentID:90},</v>
+      </c>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B95" s="1">
         <v>92</v>
       </c>
@@ -5324,16 +5884,20 @@
       <c r="E95" s="2">
         <v>90</v>
       </c>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
+      <c r="I95" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:92,name:'录音笔/机',level:3,parentID:90},</v>
+      </c>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B96" s="1">
         <v>93</v>
       </c>
@@ -5346,16 +5910,20 @@
       <c r="E96" s="2">
         <v>90</v>
       </c>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
+      <c r="I96" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:93,name:'收音机',level:3,parentID:90},</v>
+      </c>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
-    </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B97" s="1">
         <v>94</v>
       </c>
@@ -5368,16 +5936,20 @@
       <c r="E97" s="2">
         <v>90</v>
       </c>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
+      <c r="I97" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:94,name:'Mp3播放器',level:3,parentID:90},</v>
+      </c>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B98" s="1">
         <v>95</v>
       </c>
@@ -5390,30 +5962,44 @@
       <c r="E98" s="2">
         <v>90</v>
       </c>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
+      <c r="I98" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:95,name:'Mp4播放器',level:3,parentID:90},</v>
+      </c>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B99" s="1">
         <v>96</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D99" s="11">
+      <c r="D99" s="10">
         <v>1</v>
       </c>
-      <c r="E99" s="11">
+      <c r="E99" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F99" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:96,name:'鞋靴',level:1,parentID:0,iconFont:'icon-fuzhuangxiexue01'},</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B100" s="1">
         <v>97</v>
       </c>
@@ -5426,9 +6012,13 @@
       <c r="E100" s="2">
         <v>96</v>
       </c>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="H100" s="3"/>
+      <c r="I100" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:97,name:'布鞋',level:2,parentID:96},</v>
+      </c>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B101" s="1">
         <v>98</v>
       </c>
@@ -5441,9 +6031,13 @@
       <c r="E101" s="2">
         <v>96</v>
       </c>
-      <c r="F101" s="3"/>
-    </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="H101" s="3"/>
+      <c r="I101" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:98,name:'皮鞋',level:2,parentID:96},</v>
+      </c>
+    </row>
+    <row r="102" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B102" s="1">
         <v>99</v>
       </c>
@@ -5456,9 +6050,13 @@
       <c r="E102" s="2">
         <v>96</v>
       </c>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="H102" s="3"/>
+      <c r="I102" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:99,name:'凉拖',level:2,parentID:96},</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B103" s="1">
         <v>100</v>
       </c>
@@ -5471,9 +6069,13 @@
       <c r="E103" s="2">
         <v>96</v>
       </c>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="H103" s="3"/>
+      <c r="I103" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:100,name:'休闲鞋',level:2,parentID:96},</v>
+      </c>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B104" s="1">
         <v>101</v>
       </c>
@@ -5486,9 +6088,13 @@
       <c r="E104" s="2">
         <v>96</v>
       </c>
-      <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="H104" s="3"/>
+      <c r="I104" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:101,name:'旅游鞋',level:2,parentID:96},</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B105" s="1">
         <v>102</v>
       </c>
@@ -5501,23 +6107,37 @@
       <c r="E105" s="2">
         <v>96</v>
       </c>
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="H105" s="3"/>
+      <c r="I105" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:102,name:'定制鞋',level:2,parentID:96},</v>
+      </c>
+    </row>
+    <row r="106" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B106" s="1">
         <v>103</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D106" s="11">
+      <c r="D106" s="10">
         <v>1</v>
       </c>
-      <c r="E106" s="11">
+      <c r="E106" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F106" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:103,name:'服装服饰',level:1,parentID:0,iconFont:'icon-fuzhuangfushi'},</v>
+      </c>
+    </row>
+    <row r="107" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B107" s="1">
         <v>104</v>
       </c>
@@ -5530,9 +6150,13 @@
       <c r="E107" s="2">
         <v>103</v>
       </c>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="H107" s="3"/>
+      <c r="I107" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:104,name:'男装',level:2,parentID:103},</v>
+      </c>
+    </row>
+    <row r="108" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B108" s="1">
         <v>105</v>
       </c>
@@ -5545,8 +6169,12 @@
       <c r="E108" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I108" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:105,name:'女装',level:2,parentID:103},</v>
+      </c>
+    </row>
+    <row r="109" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B109" s="1">
         <v>106</v>
       </c>
@@ -5559,16 +6187,20 @@
       <c r="E109" s="2">
         <v>103</v>
       </c>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
+      <c r="I109" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:106,name:'童装',level:2,parentID:103},</v>
+      </c>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
-    </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+    </row>
+    <row r="110" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B110" s="1">
         <v>107</v>
       </c>
@@ -5581,12 +6213,16 @@
       <c r="E110" s="2">
         <v>103</v>
       </c>
-      <c r="J110" s="3"/>
-      <c r="O110" s="3"/>
-      <c r="P110" s="3"/>
+      <c r="I110" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:107,name:'潮服',level:2,parentID:103},</v>
+      </c>
+      <c r="L110" s="3"/>
       <c r="Q110" s="3"/>
-    </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+    </row>
+    <row r="111" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B111" s="1">
         <v>108</v>
       </c>
@@ -5599,8 +6235,12 @@
       <c r="E111" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I111" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:108,name:'内衣',level:2,parentID:103},</v>
+      </c>
+    </row>
+    <row r="112" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B112" s="1">
         <v>109</v>
       </c>
@@ -5613,8 +6253,12 @@
       <c r="E112" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I112" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:109,name:'帽子',level:2,parentID:103},</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B113" s="1">
         <v>110</v>
       </c>
@@ -5627,8 +6271,12 @@
       <c r="E113" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I113" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:110,name:'丝巾/头巾/围巾',level:2,parentID:103},</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B114" s="1">
         <v>111</v>
       </c>
@@ -5641,8 +6289,12 @@
       <c r="E114" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I114" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:111,name:'领带',level:2,parentID:103},</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B115" s="1">
         <v>112</v>
       </c>
@@ -5655,8 +6307,12 @@
       <c r="E115" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I115" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:112,name:'腰带',level:2,parentID:103},</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B116" s="1">
         <v>113</v>
       </c>
@@ -5669,22 +6325,36 @@
       <c r="E116" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I116" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:113,name:'手套',level:2,parentID:103},</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B117" s="1">
         <v>114</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D117" s="11">
+      <c r="D117" s="10">
         <v>1</v>
       </c>
-      <c r="E117" s="11">
+      <c r="E117" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F117" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:114,name:'皮革箱包',level:1,parentID:0,iconFont:'icon-icon16258'},</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B118" s="1">
         <v>115</v>
       </c>
@@ -5697,8 +6367,12 @@
       <c r="E118" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I118" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:115,name:'皮革服装',level:2,parentID:114},</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B119" s="1">
         <v>116</v>
       </c>
@@ -5711,8 +6385,12 @@
       <c r="E119" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I119" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:116,name:'皮革配饰',level:2,parentID:114},</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B120" s="1">
         <v>117</v>
       </c>
@@ -5725,8 +6403,12 @@
       <c r="E120" s="2">
         <v>116</v>
       </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I120" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:117,name:'皮帽',level:3,parentID:116},</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B121" s="1">
         <v>118</v>
       </c>
@@ -5739,8 +6421,12 @@
       <c r="E121" s="2">
         <v>116</v>
       </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I121" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:118,name:'皮带',level:3,parentID:116},</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B122" s="1">
         <v>119</v>
       </c>
@@ -5753,8 +6439,12 @@
       <c r="E122" s="2">
         <v>116</v>
       </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I122" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:119,name:'皮手套',level:3,parentID:116},</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B123" s="1">
         <v>120</v>
       </c>
@@ -5767,8 +6457,12 @@
       <c r="E123" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I123" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:120,name:'包',level:2,parentID:114},</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B124" s="1">
         <v>121</v>
       </c>
@@ -5781,8 +6475,12 @@
       <c r="E124" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I124" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:121,name:'双肩包',level:2,parentID:114},</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B125" s="1">
         <v>122</v>
       </c>
@@ -5795,8 +6493,12 @@
       <c r="E125" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I125" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:122,name:'钱包',level:2,parentID:114},</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B126" s="1">
         <v>123</v>
       </c>
@@ -5809,8 +6511,12 @@
       <c r="E126" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I126" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:123,name:'旅行包',level:2,parentID:114},</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B127" s="1">
         <v>124</v>
       </c>
@@ -5823,22 +6529,36 @@
       <c r="E127" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I127" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:124,name:'拉杆箱',level:2,parentID:114},</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B128" s="1">
         <v>125</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C128" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="D128" s="11">
+      <c r="D128" s="10">
         <v>1</v>
       </c>
-      <c r="E128" s="11">
+      <c r="E128" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F128" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="I128" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:125,name:'家用百货',level:1,parentID:0,iconFont:'icon-huiliuquriyongbaihuo'},</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129"/>
       <c r="B129" s="1">
         <v>126</v>
@@ -5852,8 +6572,13 @@
       <c r="E129" s="2">
         <v>125</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F129" s="11"/>
+      <c r="I129" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:126,name:'食品',level:2,parentID:125},</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130"/>
       <c r="B130" s="1">
         <v>127</v>
@@ -5867,8 +6592,13 @@
       <c r="E130" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F130" s="11"/>
+      <c r="I130" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:127,name:'休闲零食',level:3,parentID:126},</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131"/>
       <c r="B131" s="1">
         <v>128</v>
@@ -5882,8 +6612,13 @@
       <c r="E131" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F131" s="11"/>
+      <c r="I131" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:128,name:'粮油',level:3,parentID:126},</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132"/>
       <c r="B132" s="1">
         <v>129</v>
@@ -5897,8 +6632,13 @@
       <c r="E132" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F132" s="11"/>
+      <c r="I132" t="str">
+        <f t="shared" si="1"/>
+        <v>{id:129,name:'水产品',level:3,parentID:126},</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133"/>
       <c r="B133" s="1">
         <v>130</v>
@@ -5912,8 +6652,13 @@
       <c r="E133" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F133" s="11"/>
+      <c r="I133" t="str">
+        <f t="shared" ref="I133:I196" si="2">"{" &amp; "id:" &amp;B133 &amp; ",name:'" &amp; C133 &amp; "',level:"&amp;D133&amp;",parentID:"&amp;E133 &amp; IF(F133&lt;&gt;"",",iconFont:'"&amp;F133&amp;"'","") &amp; "},"</f>
+        <v>{id:130,name:'奶粉',level:3,parentID:126},</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134"/>
       <c r="B134" s="1">
         <v>131</v>
@@ -5927,8 +6672,13 @@
       <c r="E134" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F134" s="11"/>
+      <c r="I134" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:131,name:'调味品',level:3,parentID:126},</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135"/>
       <c r="B135" s="1">
         <v>132</v>
@@ -5942,8 +6692,13 @@
       <c r="E135" s="2">
         <v>125</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F135" s="11"/>
+      <c r="I135" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:132,name:'饮料',level:2,parentID:125},</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136"/>
       <c r="B136" s="1">
         <v>133</v>
@@ -5957,8 +6712,13 @@
       <c r="E136" s="2">
         <v>132</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F136" s="11"/>
+      <c r="I136" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:133,name:'茶',level:3,parentID:132},</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137"/>
       <c r="B137" s="1">
         <v>134</v>
@@ -5972,8 +6732,13 @@
       <c r="E137" s="2">
         <v>132</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F137" s="11"/>
+      <c r="I137" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:134,name:'牛奶',level:3,parentID:132},</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138"/>
       <c r="B138" s="1">
         <v>135</v>
@@ -5987,8 +6752,13 @@
       <c r="E138" s="2">
         <v>132</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F138" s="11"/>
+      <c r="I138" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:135,name:'咖啡',level:3,parentID:132},</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139"/>
       <c r="B139" s="1">
         <v>136</v>
@@ -6002,8 +6772,13 @@
       <c r="E139" s="2">
         <v>132</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F139" s="11"/>
+      <c r="I139" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:136,name:'其他',level:3,parentID:132},</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B140" s="1">
         <v>137</v>
       </c>
@@ -6016,8 +6791,12 @@
       <c r="E140" s="2">
         <v>125</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I140" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:137,name:'厨具',level:2,parentID:125},</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141"/>
       <c r="B141" s="1">
         <v>138</v>
@@ -6031,8 +6810,13 @@
       <c r="E141" s="2">
         <v>137</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F141" s="11"/>
+      <c r="I141" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:138,name:'刀具',level:3,parentID:137},</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142"/>
       <c r="B142" s="1">
         <v>139</v>
@@ -6046,8 +6830,13 @@
       <c r="E142" s="2">
         <v>137</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F142" s="11"/>
+      <c r="I142" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:139,name:'餐具',level:3,parentID:137},</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143"/>
       <c r="B143" s="1">
         <v>140</v>
@@ -6061,8 +6850,13 @@
       <c r="E143" s="2">
         <v>137</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F143" s="11"/>
+      <c r="I143" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:140,name:'锅具/壶具',level:3,parentID:137},</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144"/>
       <c r="B144" s="1">
         <v>141</v>
@@ -6076,8 +6870,13 @@
       <c r="E144" s="2">
         <v>137</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F144" s="11"/>
+      <c r="I144" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:141,name:'茶具',level:3,parentID:137},</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B145" s="1">
         <v>142</v>
       </c>
@@ -6090,8 +6889,12 @@
       <c r="E145" s="2">
         <v>125</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I145" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:142,name:'家具',level:2,parentID:125},</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146"/>
       <c r="B146" s="1">
         <v>143</v>
@@ -6105,8 +6908,13 @@
       <c r="E146" s="2">
         <v>142</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F146" s="11"/>
+      <c r="I146" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:143,name:'沙发',level:3,parentID:142},</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147"/>
       <c r="B147" s="1">
         <v>144</v>
@@ -6120,8 +6928,13 @@
       <c r="E147" s="2">
         <v>142</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F147" s="11"/>
+      <c r="I147" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:144,name:'床垫',level:3,parentID:142},</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148"/>
       <c r="B148" s="1">
         <v>145</v>
@@ -6135,8 +6948,13 @@
       <c r="E148" s="2">
         <v>142</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F148" s="11"/>
+      <c r="I148" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:145,name:'置物架',level:3,parentID:142},</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149"/>
       <c r="B149" s="1">
         <v>146</v>
@@ -6150,8 +6968,13 @@
       <c r="E149" s="2">
         <v>142</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F149" s="11"/>
+      <c r="I149" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:146,name:'柜子',level:3,parentID:142},</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B150" s="1">
         <v>147</v>
       </c>
@@ -6164,8 +6987,12 @@
       <c r="E150" s="2">
         <v>125</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I150" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:147,name:'家居装饰',level:2,parentID:125},</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151"/>
       <c r="B151" s="1">
         <v>148</v>
@@ -6179,8 +7006,13 @@
       <c r="E151" s="2">
         <v>147</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F151" s="11"/>
+      <c r="I151" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:148,name:'装饰布艺',level:3,parentID:147},</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152"/>
       <c r="B152" s="1">
         <v>149</v>
@@ -6194,8 +7026,13 @@
       <c r="E152" s="2">
         <v>147</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F152" s="11"/>
+      <c r="I152" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:149,name:'装饰画',level:3,parentID:147},</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153"/>
       <c r="B153" s="1">
         <v>150</v>
@@ -6209,8 +7046,13 @@
       <c r="E153" s="2">
         <v>147</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F153" s="11"/>
+      <c r="I153" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:150,name:'墙贴',level:3,parentID:147},</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154"/>
       <c r="B154" s="1">
         <v>151</v>
@@ -6224,8 +7066,13 @@
       <c r="E154" s="2">
         <v>147</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F154" s="11"/>
+      <c r="I154" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:151,name:'摆件',level:3,parentID:147},</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B155" s="1">
         <v>152</v>
       </c>
@@ -6238,8 +7085,12 @@
       <c r="E155" s="2">
         <v>125</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I155" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:152,name:'家纺',level:2,parentID:125},</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156"/>
       <c r="B156" s="1">
         <v>153</v>
@@ -6253,8 +7104,13 @@
       <c r="E156" s="2">
         <v>152</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F156" s="11"/>
+      <c r="I156" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:153,name:'毛毯、被子、床罩、睡袋',level:3,parentID:152},</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157"/>
       <c r="B157" s="1">
         <v>154</v>
@@ -6268,8 +7124,13 @@
       <c r="E157" s="2">
         <v>152</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F157" s="11"/>
+      <c r="I157" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:154,name:'枕头、床单、毛巾被、被套',level:3,parentID:152},</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158"/>
       <c r="B158" s="1">
         <v>155</v>
@@ -6283,8 +7144,13 @@
       <c r="E158" s="2">
         <v>152</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F158" s="11"/>
+      <c r="I158" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:155,name:'地毯',level:3,parentID:152},</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159"/>
       <c r="B159" s="1">
         <v>156</v>
@@ -6298,22 +7164,37 @@
       <c r="E159" s="2">
         <v>152</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F159" s="11"/>
+      <c r="I159" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:156,name:'窗帘',level:3,parentID:152},</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B160" s="1">
         <v>157</v>
       </c>
-      <c r="C160" s="11" t="s">
+      <c r="C160" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="D160" s="11">
+      <c r="D160" s="10">
         <v>1</v>
       </c>
-      <c r="E160" s="11">
+      <c r="E160" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F160" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I160" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:157,name:'生活电器',level:1,parentID:0,iconFont:'icon-xiyiji'},</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161"/>
       <c r="B161" s="1">
         <v>158</v>
@@ -6327,8 +7208,13 @@
       <c r="E161" s="2">
         <v>157</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F161" s="11"/>
+      <c r="I161" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:158,name:'大家电',level:2,parentID:157},</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162"/>
       <c r="B162" s="1">
         <v>159</v>
@@ -6342,8 +7228,13 @@
       <c r="E162" s="2">
         <v>158</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F162" s="11"/>
+      <c r="I162" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:159,name:'空调',level:3,parentID:158},</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163"/>
       <c r="B163" s="1">
         <v>160</v>
@@ -6357,8 +7248,13 @@
       <c r="E163" s="2">
         <v>158</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F163" s="11"/>
+      <c r="I163" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:160,name:'冰箱',level:3,parentID:158},</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164"/>
       <c r="B164" s="1">
         <v>161</v>
@@ -6372,8 +7268,13 @@
       <c r="E164" s="2">
         <v>158</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F164" s="11"/>
+      <c r="I164" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:161,name:'洗衣机',level:3,parentID:158},</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165"/>
       <c r="B165" s="1">
         <v>162</v>
@@ -6387,8 +7288,13 @@
       <c r="E165" s="2">
         <v>158</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F165" s="11"/>
+      <c r="I165" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:162,name:'热水器',level:3,parentID:158},</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166"/>
       <c r="B166" s="1">
         <v>163</v>
@@ -6402,8 +7308,13 @@
       <c r="E166" s="2">
         <v>157</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F166" s="11"/>
+      <c r="I166" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:163,name:'厨房电器',level:2,parentID:157},</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167"/>
       <c r="B167" s="1">
         <v>164</v>
@@ -6417,8 +7328,13 @@
       <c r="E167" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F167" s="11"/>
+      <c r="I167" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:164,name:'锅电饭煲',level:3,parentID:163},</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168"/>
       <c r="B168" s="1">
         <v>165</v>
@@ -6432,8 +7348,13 @@
       <c r="E168" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F168" s="11"/>
+      <c r="I168" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:165,name:'面包机',level:3,parentID:163},</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B169" s="1">
         <v>166</v>
       </c>
@@ -6446,8 +7367,12 @@
       <c r="E169" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I169" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:166,name:'咖啡机',level:3,parentID:163},</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B170" s="1">
         <v>167</v>
       </c>
@@ -6460,8 +7385,12 @@
       <c r="E170" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="I170" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:167,name:'微波炉',level:3,parentID:163},</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B171" s="1">
         <v>168</v>
       </c>
@@ -6474,9 +7403,13 @@
       <c r="E171" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B172" s="10">
+      <c r="I171" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:168,name:'榨汁机',level:3,parentID:163},</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B172" s="1">
         <v>169</v>
       </c>
       <c r="C172" s="2" t="s">
@@ -6488,9 +7421,14 @@
       <c r="E172" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B173" s="10">
+      <c r="F172" s="11"/>
+      <c r="I172" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:169,name:'电烤箱',level:3,parentID:163},</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B173" s="1">
         <v>170</v>
       </c>
       <c r="C173" s="2" t="s">
@@ -6502,9 +7440,14 @@
       <c r="E173" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B174" s="10">
+      <c r="F173" s="11"/>
+      <c r="I173" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:170,name:'电磁炉',level:3,parentID:163},</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B174" s="1">
         <v>171</v>
       </c>
       <c r="C174" s="2" t="s">
@@ -6516,9 +7459,14 @@
       <c r="E174" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B175" s="10">
+      <c r="F174" s="11"/>
+      <c r="I174" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:171,name:'煮蛋器',level:3,parentID:163},</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B175" s="1">
         <v>172</v>
       </c>
       <c r="C175" s="2" t="s">
@@ -6530,9 +7478,14 @@
       <c r="E175" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="10">
+      <c r="F175" s="11"/>
+      <c r="I175" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:172,name:'酸奶机',level:3,parentID:163},</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B176" s="1">
         <v>173</v>
       </c>
       <c r="C176" s="2" t="s">
@@ -6544,9 +7497,14 @@
       <c r="E176" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="177" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="10">
+      <c r="F176" s="11"/>
+      <c r="I176" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:173,name:'电水壶',level:3,parentID:163},</v>
+      </c>
+    </row>
+    <row r="177" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B177" s="1">
         <v>174</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -6558,9 +7516,14 @@
       <c r="E177" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="178" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B178" s="10">
+      <c r="F177" s="11"/>
+      <c r="I177" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:174,name:'果蔬解毒机',level:3,parentID:163},</v>
+      </c>
+    </row>
+    <row r="178" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B178" s="1">
         <v>175</v>
       </c>
       <c r="C178" s="2" t="s">
@@ -6572,9 +7535,14 @@
       <c r="E178" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="179" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B179" s="10">
+      <c r="F178" s="11"/>
+      <c r="I178" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:175,name:'其它厨房电器',level:3,parentID:163},</v>
+      </c>
+    </row>
+    <row r="179" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B179" s="1">
         <v>176</v>
       </c>
       <c r="C179" s="2" t="s">
@@ -6586,9 +7554,14 @@
       <c r="E179" s="2">
         <v>157</v>
       </c>
-    </row>
-    <row r="180" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B180" s="10">
+      <c r="F179" s="11"/>
+      <c r="I179" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:176,name:'居家电器',level:2,parentID:157},</v>
+      </c>
+    </row>
+    <row r="180" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B180" s="1">
         <v>177</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -6600,9 +7573,14 @@
       <c r="E180" s="2">
         <v>176</v>
       </c>
-    </row>
-    <row r="181" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B181" s="10">
+      <c r="F180" s="11"/>
+      <c r="I180" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:177,name:'空气净化器',level:3,parentID:176},</v>
+      </c>
+    </row>
+    <row r="181" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B181" s="1">
         <v>178</v>
       </c>
       <c r="C181" s="2" t="s">
@@ -6614,9 +7592,14 @@
       <c r="E181" s="2">
         <v>176</v>
       </c>
-    </row>
-    <row r="182" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="10">
+      <c r="F181" s="11"/>
+      <c r="I181" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:178,name:'电风扇',level:3,parentID:176},</v>
+      </c>
+    </row>
+    <row r="182" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B182" s="1">
         <v>179</v>
       </c>
       <c r="C182" s="2" t="s">
@@ -6628,9 +7611,14 @@
       <c r="E182" s="2">
         <v>176</v>
       </c>
-    </row>
-    <row r="183" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B183" s="10">
+      <c r="F182" s="11"/>
+      <c r="I182" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:179,name:'吸尘器',level:3,parentID:176},</v>
+      </c>
+    </row>
+    <row r="183" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B183" s="1">
         <v>180</v>
       </c>
       <c r="C183" s="2" t="s">
@@ -6642,9 +7630,14 @@
       <c r="E183" s="2">
         <v>176</v>
       </c>
-    </row>
-    <row r="184" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B184" s="10">
+      <c r="F183" s="11"/>
+      <c r="I183" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:180,name:'电熨斗',level:3,parentID:176},</v>
+      </c>
+    </row>
+    <row r="184" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B184" s="1">
         <v>181</v>
       </c>
       <c r="C184" s="2" t="s">
@@ -6656,8 +7649,13 @@
       <c r="E184" s="2">
         <v>176</v>
       </c>
-    </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F184" s="11"/>
+      <c r="I184" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:181,name:'加湿器',level:3,parentID:176},</v>
+      </c>
+    </row>
+    <row r="185" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B185" s="1">
         <v>182</v>
       </c>
@@ -6670,8 +7668,12 @@
       <c r="E185" s="2">
         <v>176</v>
       </c>
-    </row>
-    <row r="186" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I185" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:182,name:'除湿机',level:3,parentID:176},</v>
+      </c>
+    </row>
+    <row r="186" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B186" s="1">
         <v>183</v>
       </c>
@@ -6684,8 +7686,12 @@
       <c r="E186" s="2">
         <v>157</v>
       </c>
-    </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I186" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:183,name:'个护电器',level:2,parentID:157},</v>
+      </c>
+    </row>
+    <row r="187" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B187" s="1">
         <v>184</v>
       </c>
@@ -6698,8 +7704,12 @@
       <c r="E187" s="2">
         <v>183</v>
       </c>
-    </row>
-    <row r="188" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I187" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:184,name:'电子秤',level:3,parentID:183},</v>
+      </c>
+    </row>
+    <row r="188" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B188" s="1">
         <v>185</v>
       </c>
@@ -6712,8 +7722,12 @@
       <c r="E188" s="2">
         <v>183</v>
       </c>
-    </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I188" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:185,name:'电动理发器',level:3,parentID:183},</v>
+      </c>
+    </row>
+    <row r="189" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B189" s="1">
         <v>186</v>
       </c>
@@ -6726,26 +7740,40 @@
       <c r="E189" s="2">
         <v>183</v>
       </c>
-    </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I189" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:186,name:'美发器',level:3,parentID:183},</v>
+      </c>
+    </row>
+    <row r="190" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B190" s="1">
         <v>187</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="C190" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D190" s="11">
+      <c r="D190" s="10">
         <v>1</v>
       </c>
-      <c r="E190" s="11">
+      <c r="E190" s="10">
         <v>0</v>
       </c>
-      <c r="J190" s="3"/>
-      <c r="O190" s="3"/>
-      <c r="P190" s="3"/>
+      <c r="F190" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="I190" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:187,name:'医疗保健',level:1,parentID:0,iconFont:'icon-yiliao1'},</v>
+      </c>
+      <c r="L190" s="3"/>
       <c r="Q190" s="3"/>
-    </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="R190" s="3"/>
+      <c r="S190" s="3"/>
+    </row>
+    <row r="191" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B191" s="1">
         <v>188</v>
       </c>
@@ -6758,8 +7786,12 @@
       <c r="E191" s="2">
         <v>187</v>
       </c>
-    </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I191" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:188,name:'家用医疗器材',level:2,parentID:187},</v>
+      </c>
+    </row>
+    <row r="192" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B192" s="1">
         <v>189</v>
       </c>
@@ -6772,8 +7804,12 @@
       <c r="E192" s="2">
         <v>187</v>
       </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I192" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:189,name:'家用保健器材',level:2,parentID:187},</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B193" s="1">
         <v>190</v>
       </c>
@@ -6786,8 +7822,12 @@
       <c r="E193" s="2">
         <v>187</v>
       </c>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I193" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:190,name:'家用美容器材',level:2,parentID:187},</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B194" s="1">
         <v>191</v>
       </c>
@@ -6800,8 +7840,12 @@
       <c r="E194" s="2">
         <v>187</v>
       </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I194" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:191,name:'传统滋补',level:2,parentID:187},</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B195" s="1">
         <v>192</v>
       </c>
@@ -6814,22 +7858,36 @@
       <c r="E195" s="2">
         <v>187</v>
       </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I195" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:192,name:'营养保健',level:2,parentID:187},</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B196" s="1">
         <v>193</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C196" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="D196" s="11">
+      <c r="D196" s="10">
         <v>1</v>
       </c>
-      <c r="E196" s="11">
+      <c r="E196" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F196" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="I196" t="str">
+        <f t="shared" si="2"/>
+        <v>{id:193,name:'体育用品',level:1,parentID:0,iconFont:'icon-tiyu02'},</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B197" s="1">
         <v>194</v>
       </c>
@@ -6842,8 +7900,12 @@
       <c r="E197" s="2">
         <v>193</v>
       </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I197" t="str">
+        <f t="shared" ref="I197:I214" si="3">"{" &amp; "id:" &amp;B197 &amp; ",name:'" &amp; C197 &amp; "',level:"&amp;D197&amp;",parentID:"&amp;E197 &amp; IF(F197&lt;&gt;"",",iconFont:'"&amp;F197&amp;"'","") &amp; "},"</f>
+        <v>{id:194,name:'运动器具',level:2,parentID:193},</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B198" s="1">
         <v>195</v>
       </c>
@@ -6856,8 +7918,12 @@
       <c r="E198" s="2">
         <v>193</v>
       </c>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I198" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:195,name:'多功能健身器具',level:2,parentID:193},</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B199" s="1">
         <v>196</v>
       </c>
@@ -6870,8 +7936,12 @@
       <c r="E199" s="2">
         <v>193</v>
       </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I199" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:196,name:'车具',level:2,parentID:193},</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B200" s="1">
         <v>197</v>
       </c>
@@ -6884,22 +7954,36 @@
       <c r="E200" s="2">
         <v>193</v>
       </c>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I200" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:197,name:'高尔夫球及球具',level:2,parentID:193},</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B201" s="1">
         <v>198</v>
       </c>
-      <c r="C201" s="11" t="s">
+      <c r="C201" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="D201" s="11">
+      <c r="D201" s="10">
         <v>1</v>
       </c>
-      <c r="E201" s="11">
+      <c r="E201" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F201" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="I201" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:198,name:'母婴用品',level:1,parentID:0,iconFont:'icon-muying'},</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B202" s="1">
         <v>199</v>
       </c>
@@ -6912,8 +7996,12 @@
       <c r="E202" s="2">
         <v>198</v>
       </c>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I202" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:199,name:'婴儿尿裤',level:2,parentID:198},</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B203" s="1">
         <v>200</v>
       </c>
@@ -6926,8 +8014,12 @@
       <c r="E203" s="2">
         <v>198</v>
       </c>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I203" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:200,name:'奶粉',level:2,parentID:198},</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B204" s="1">
         <v>201</v>
       </c>
@@ -6940,8 +8032,12 @@
       <c r="E204" s="2">
         <v>198</v>
       </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I204" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:201,name:'营养辅食',level:2,parentID:198},</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B205" s="1">
         <v>202</v>
       </c>
@@ -6954,8 +8050,12 @@
       <c r="E205" s="2">
         <v>198</v>
       </c>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I205" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:202,name:'喂养洗护',level:2,parentID:198},</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B206" s="1">
         <v>203</v>
       </c>
@@ -6968,8 +8068,12 @@
       <c r="E206" s="2">
         <v>198</v>
       </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I206" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:203,name:'婴儿服装',level:2,parentID:198},</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B207" s="1">
         <v>204</v>
       </c>
@@ -6982,8 +8086,12 @@
       <c r="E207" s="2">
         <v>198</v>
       </c>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I207" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:204,name:'妈妈用品',level:2,parentID:198},</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B208" s="1">
         <v>205</v>
       </c>
@@ -6996,22 +8104,36 @@
       <c r="E208" s="2">
         <v>198</v>
       </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I208" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:205,name:'寝具家具',level:2,parentID:198},</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B209" s="1">
         <v>206</v>
       </c>
-      <c r="C209" s="11" t="s">
+      <c r="C209" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D209" s="11">
+      <c r="D209" s="10">
         <v>1</v>
       </c>
-      <c r="E209" s="11">
+      <c r="E209" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F209" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I209" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:206,name:'烟酒',level:1,parentID:0,iconFont:'icon-jiu'},</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B210" s="1">
         <v>207</v>
       </c>
@@ -7019,13 +8141,20 @@
         <v>318</v>
       </c>
       <c r="D210" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E210" s="2">
         <v>206</v>
       </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="G210" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="I210" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:207,name:'烟',level:2,parentID:206},</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B211" s="1">
         <v>208</v>
       </c>
@@ -7038,22 +8167,36 @@
       <c r="E211" s="2">
         <v>206</v>
       </c>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I211" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:208,name:'酒',level:2,parentID:206},</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B212" s="1">
         <v>209</v>
       </c>
-      <c r="C212" s="11" t="s">
+      <c r="C212" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="D212" s="11">
+      <c r="D212" s="10">
         <v>1</v>
       </c>
-      <c r="E212" s="11">
+      <c r="E212" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F212" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="I212" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:209,name:'其他物品',level:1,parentID:0,iconFont:'icon-gengduo'},</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B213" s="1">
         <v>210</v>
       </c>
@@ -7066,8 +8209,12 @@
       <c r="E213" s="2">
         <v>209</v>
       </c>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="I213" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:210,name:'艺术品、收藏品',level:2,parentID:209},</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B214" s="1">
         <v>211</v>
       </c>
@@ -7080,8 +8227,101 @@
       <c r="E214" s="2">
         <v>209</v>
       </c>
+      <c r="I214" t="str">
+        <f t="shared" si="3"/>
+        <v>{id:211,name:'邮票',level:2,parentID:209},</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D222" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D223" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="225" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D225" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="227" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D227" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="228" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D228" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="233" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D233" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="234" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D234" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="237" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D237" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="239" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D239" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="240" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D240" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="242" spans="4:5" x14ac:dyDescent="0.15">
+      <c r="D242" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>593</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:S215"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -7999,7 +9239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
@@ -8185,7 +9425,7 @@
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>454</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -8479,7 +9719,7 @@
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="14"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B50" s="1"/>
@@ -8739,7 +9979,7 @@
     <row r="79" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="14" t="s">
         <v>496</v>
       </c>
       <c r="E79" s="4"/>

--- a/docs/产品分类.xlsx
+++ b/docs/产品分类.xlsx
@@ -3824,8 +3824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="F217" sqref="F217"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3881,8 +3881,8 @@
         <v>596</v>
       </c>
       <c r="I4" t="str">
-        <f>"{" &amp; "id:" &amp;B4 &amp; ",name:'" &amp; C4 &amp; "',level:"&amp;D4&amp;",parentID:"&amp;E4 &amp; IF(F4&lt;&gt;"",",iconFont:'"&amp;F4&amp;"'","") &amp; "},"</f>
-        <v>{id:1,name:'个护化妆',level:1,parentID:0,iconFont:'icon-gehuhuazhuang02'},</v>
+        <f>"{" &amp; "id:" &amp;B4 &amp; ",name:'" &amp; C4 &amp; "',level:"&amp;D4&amp;",parentID:"&amp;E4 &amp; IF(F4&lt;&gt;"",",icon:'"&amp;F4&amp;"'","") &amp; "},"</f>
+        <v>{id:1,name:'个护化妆',level:1,parentID:0,icon:'icon-gehuhuazhuang02'},</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -3901,7 +3901,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ref="I5:I68" si="0">"{" &amp; "id:" &amp;B5 &amp; ",name:'" &amp; C5 &amp; "',level:"&amp;D5&amp;",parentID:"&amp;E5 &amp; IF(F5&lt;&gt;"",",iconFont:'"&amp;F5&amp;"'","") &amp; "},"</f>
+        <f t="shared" ref="I5:I68" si="0">"{" &amp; "id:" &amp;B5 &amp; ",name:'" &amp; C5 &amp; "',level:"&amp;D5&amp;",parentID:"&amp;E5 &amp; IF(F5&lt;&gt;"",",icon:'"&amp;F5&amp;"'","") &amp; "},"</f>
         <v>{id:2,name:'面部护理',level:2,parentID:1},</v>
       </c>
       <c r="M5" s="2"/>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
-        <v>{id:36,name:'珠宝饰品',level:1,parentID:0,iconFont:'icon-tubiao'},</v>
+        <v>{id:36,name:'珠宝饰品',level:1,parentID:0,icon:'icon-tubiao'},</v>
       </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
-        <v>{id:44,name:'电脑办公',level:1,parentID:0,iconFont:'icon-diannao'},</v>
+        <v>{id:44,name:'电脑办公',level:1,parentID:0,icon:'icon-diannao'},</v>
       </c>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
-        <v>{id:53,name:'数码',level:1,parentID:0,iconFont:'icon-shuma'},</v>
+        <v>{id:53,name:'数码',level:1,parentID:0,icon:'icon-shuma'},</v>
       </c>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.15">
@@ -5309,7 +5309,7 @@
         <v>63</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" ref="I69:I132" si="1">"{" &amp; "id:" &amp;B69 &amp; ",name:'" &amp; C69 &amp; "',level:"&amp;D69&amp;",parentID:"&amp;E69 &amp; IF(F69&lt;&gt;"",",iconFont:'"&amp;F69&amp;"'","") &amp; "},"</f>
+        <f t="shared" ref="I69:I132" si="1">"{" &amp; "id:" &amp;B69 &amp; ",name:'" &amp; C69 &amp; "',level:"&amp;D69&amp;",parentID:"&amp;E69 &amp; IF(F69&lt;&gt;"",",icon:'"&amp;F69&amp;"'","") &amp; "},"</f>
         <v>{id:66,name:'三脚架/云台',level:3,parentID:63},</v>
       </c>
     </row>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="I99" t="str">
         <f t="shared" si="1"/>
-        <v>{id:96,name:'鞋靴',level:1,parentID:0,iconFont:'icon-fuzhuangxiexue01'},</v>
+        <v>{id:96,name:'鞋靴',level:1,parentID:0,icon:'icon-fuzhuangxiexue01'},</v>
       </c>
     </row>
     <row r="100" spans="2:19" x14ac:dyDescent="0.15">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="I106" t="str">
         <f t="shared" si="1"/>
-        <v>{id:103,name:'服装服饰',level:1,parentID:0,iconFont:'icon-fuzhuangfushi'},</v>
+        <v>{id:103,name:'服装服饰',level:1,parentID:0,icon:'icon-fuzhuangfushi'},</v>
       </c>
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.15">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="I117" t="str">
         <f t="shared" si="1"/>
-        <v>{id:114,name:'皮革箱包',level:1,parentID:0,iconFont:'icon-icon16258'},</v>
+        <v>{id:114,name:'皮革箱包',level:1,parentID:0,icon:'icon-icon16258'},</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.15">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="I128" t="str">
         <f t="shared" si="1"/>
-        <v>{id:125,name:'家用百货',level:1,parentID:0,iconFont:'icon-huiliuquriyongbaihuo'},</v>
+        <v>{id:125,name:'家用百货',level:1,parentID:0,icon:'icon-huiliuquriyongbaihuo'},</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="F133" s="11"/>
       <c r="I133" t="str">
-        <f t="shared" ref="I133:I196" si="2">"{" &amp; "id:" &amp;B133 &amp; ",name:'" &amp; C133 &amp; "',level:"&amp;D133&amp;",parentID:"&amp;E133 &amp; IF(F133&lt;&gt;"",",iconFont:'"&amp;F133&amp;"'","") &amp; "},"</f>
+        <f t="shared" ref="I133:I196" si="2">"{" &amp; "id:" &amp;B133 &amp; ",name:'" &amp; C133 &amp; "',level:"&amp;D133&amp;",parentID:"&amp;E133 &amp; IF(F133&lt;&gt;"",",icon:'"&amp;F133&amp;"'","") &amp; "},"</f>
         <v>{id:130,name:'奶粉',level:3,parentID:126},</v>
       </c>
     </row>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="I160" t="str">
         <f t="shared" si="2"/>
-        <v>{id:157,name:'生活电器',level:1,parentID:0,iconFont:'icon-xiyiji'},</v>
+        <v>{id:157,name:'生活电器',level:1,parentID:0,icon:'icon-xiyiji'},</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="I190" t="str">
         <f t="shared" si="2"/>
-        <v>{id:187,name:'医疗保健',level:1,parentID:0,iconFont:'icon-yiliao1'},</v>
+        <v>{id:187,name:'医疗保健',level:1,parentID:0,icon:'icon-yiliao1'},</v>
       </c>
       <c r="L190" s="3"/>
       <c r="Q190" s="3"/>
@@ -7884,7 +7884,7 @@
       </c>
       <c r="I196" t="str">
         <f t="shared" si="2"/>
-        <v>{id:193,name:'体育用品',level:1,parentID:0,iconFont:'icon-tiyu02'},</v>
+        <v>{id:193,name:'体育用品',level:1,parentID:0,icon:'icon-tiyu02'},</v>
       </c>
     </row>
     <row r="197" spans="2:9" x14ac:dyDescent="0.15">
@@ -7901,7 +7901,7 @@
         <v>193</v>
       </c>
       <c r="I197" t="str">
-        <f t="shared" ref="I197:I214" si="3">"{" &amp; "id:" &amp;B197 &amp; ",name:'" &amp; C197 &amp; "',level:"&amp;D197&amp;",parentID:"&amp;E197 &amp; IF(F197&lt;&gt;"",",iconFont:'"&amp;F197&amp;"'","") &amp; "},"</f>
+        <f t="shared" ref="I197:I214" si="3">"{" &amp; "id:" &amp;B197 &amp; ",name:'" &amp; C197 &amp; "',level:"&amp;D197&amp;",parentID:"&amp;E197 &amp; IF(F197&lt;&gt;"",",icon:'"&amp;F197&amp;"'","") &amp; "},"</f>
         <v>{id:194,name:'运动器具',level:2,parentID:193},</v>
       </c>
     </row>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="I201" t="str">
         <f t="shared" si="3"/>
-        <v>{id:198,name:'母婴用品',level:1,parentID:0,iconFont:'icon-muying'},</v>
+        <v>{id:198,name:'母婴用品',level:1,parentID:0,icon:'icon-muying'},</v>
       </c>
     </row>
     <row r="202" spans="2:9" x14ac:dyDescent="0.15">
@@ -8130,7 +8130,7 @@
       </c>
       <c r="I209" t="str">
         <f t="shared" si="3"/>
-        <v>{id:206,name:'烟酒',level:1,parentID:0,iconFont:'icon-jiu'},</v>
+        <v>{id:206,name:'烟酒',level:1,parentID:0,icon:'icon-jiu'},</v>
       </c>
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.15">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="I212" t="str">
         <f t="shared" si="3"/>
-        <v>{id:209,name:'其他物品',level:1,parentID:0,iconFont:'icon-gengduo'},</v>
+        <v>{id:209,name:'其他物品',level:1,parentID:0,icon:'icon-gengduo'},</v>
       </c>
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.15">
